--- a/NBAcademix/media/performance_documents/THIRD__YEAR_-ACADEMIC_YEAR_2022-23.xlsx
+++ b/NBAcademix/media/performance_documents/THIRD__YEAR_-ACADEMIC_YEAR_2022-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAISHANAVI RAO P\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1840A842-C6F3-46B7-BEAD-01B46C15D7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA80E643-7232-439F-A374-58FE49534CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-23" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="230">
   <si>
     <t>SL.NO</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>DETAINED?</t>
-  </si>
-  <si>
-    <t>Mean of percentage of all successful students(x)</t>
-  </si>
-  <si>
-    <t>Total no.of students appeared in the examination</t>
-  </si>
-  <si>
-    <t>Academic Performance Index(API)=X*(Y/Z)</t>
-  </si>
-  <si>
-    <t>Total number of sucessful students(y)</t>
   </si>
   <si>
     <t>NO</t>
@@ -1149,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,10 +1161,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -1190,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>7.56</v>
@@ -1206,7 +1194,7 @@
         <v>7.56</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1214,10 +1202,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -1230,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1238,10 +1226,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>5.91</v>
@@ -1254,7 +1242,7 @@
         <v>5.91</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1262,10 +1250,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>6.04</v>
@@ -1278,7 +1266,7 @@
         <v>6.04</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1286,10 +1274,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>8.1999999999999993</v>
@@ -1302,7 +1290,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1310,10 +1298,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <v>4.4400000000000004</v>
@@ -1326,7 +1314,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1334,10 +1322,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D8">
         <v>7.04</v>
@@ -1350,7 +1338,7 @@
         <v>7.04</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1358,10 +1346,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>7.14</v>
@@ -1374,7 +1362,7 @@
         <v>7.14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1382,10 +1370,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>8.2799999999999994</v>
@@ -1398,7 +1386,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1406,10 +1394,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>6.16</v>
@@ -1422,7 +1410,7 @@
         <v>6.16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1430,10 +1418,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>1.74</v>
@@ -1446,7 +1434,7 @@
         <v>1.74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1454,10 +1442,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>7.92</v>
@@ -1470,7 +1458,7 @@
         <v>7.92</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1478,10 +1466,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D14">
         <v>6.76</v>
@@ -1494,7 +1482,7 @@
         <v>6.76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1502,10 +1490,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>6.92</v>
@@ -1518,7 +1506,7 @@
         <v>6.92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1526,10 +1514,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16">
         <v>8.56</v>
@@ -1542,7 +1530,7 @@
         <v>8.56</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1550,10 +1538,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D17">
         <v>8.1199999999999992</v>
@@ -1566,7 +1554,7 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1574,10 +1562,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D18">
         <v>7.05</v>
@@ -1590,7 +1578,7 @@
         <v>7.05</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1598,10 +1586,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D19">
         <v>8.44</v>
@@ -1614,18 +1602,18 @@
         <v>8.44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>7.84</v>
@@ -1638,7 +1626,7 @@
         <v>7.84</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1646,10 +1634,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D21">
         <v>7.11</v>
@@ -1662,7 +1650,7 @@
         <v>7.11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1670,10 +1658,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>6.61</v>
@@ -1686,7 +1674,7 @@
         <v>6.61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1694,10 +1682,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D23">
         <v>7.56</v>
@@ -1710,7 +1698,7 @@
         <v>7.56</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1718,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>7.4</v>
@@ -1734,7 +1722,7 @@
         <v>7.4</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1742,10 +1730,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D25">
         <v>7.36</v>
@@ -1758,7 +1746,7 @@
         <v>7.36</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1766,10 +1754,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D26">
         <v>7.56</v>
@@ -1782,7 +1770,7 @@
         <v>7.56</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1790,10 +1778,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D27">
         <v>7.52</v>
@@ -1806,7 +1794,7 @@
         <v>7.52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1814,10 +1802,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D28">
         <v>6.28</v>
@@ -1830,7 +1818,7 @@
         <v>6.28</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1838,10 +1826,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D29">
         <v>8.76</v>
@@ -1854,7 +1842,7 @@
         <v>8.76</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1862,10 +1850,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D30">
         <v>7.92</v>
@@ -1878,7 +1866,7 @@
         <v>7.92</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1886,10 +1874,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>7.24</v>
@@ -1902,7 +1890,7 @@
         <v>7.24</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1910,10 +1898,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32">
         <v>6.96</v>
@@ -1926,7 +1914,7 @@
         <v>6.96</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1934,10 +1922,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D33">
         <v>7.48</v>
@@ -1950,7 +1938,7 @@
         <v>7.48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1958,10 +1946,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D34">
         <v>6.58</v>
@@ -1974,7 +1962,7 @@
         <v>6.58</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1982,10 +1970,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D35">
         <v>7.16</v>
@@ -1998,7 +1986,7 @@
         <v>7.16</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2006,10 +1994,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D36">
         <v>8.44</v>
@@ -2022,7 +2010,7 @@
         <v>8.44</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2030,10 +2018,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D37">
         <v>5.9</v>
@@ -2046,7 +2034,7 @@
         <v>5.9</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2054,10 +2042,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D38">
         <v>8.0399999999999991</v>
@@ -2070,7 +2058,7 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2078,10 +2066,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D39">
         <v>7.8</v>
@@ -2094,7 +2082,7 @@
         <v>7.8</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2102,10 +2090,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D40">
         <v>8.36</v>
@@ -2118,7 +2106,7 @@
         <v>8.36</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2126,10 +2114,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D41">
         <v>6.92</v>
@@ -2142,7 +2130,7 @@
         <v>6.92</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2150,10 +2138,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D42">
         <v>6.84</v>
@@ -2166,7 +2154,7 @@
         <v>6.84</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2174,10 +2162,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D43">
         <v>9.08</v>
@@ -2190,7 +2178,7 @@
         <v>9.08</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2198,10 +2186,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D44">
         <v>8.1999999999999993</v>
@@ -2214,7 +2202,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2222,10 +2210,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D45">
         <v>8.16</v>
@@ -2238,7 +2226,7 @@
         <v>8.16</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2246,10 +2234,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D46">
         <v>7.04</v>
@@ -2262,7 +2250,7 @@
         <v>7.04</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2270,10 +2258,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D47">
         <v>5.83</v>
@@ -2286,7 +2274,7 @@
         <v>5.83</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2294,10 +2282,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D48">
         <v>7.25</v>
@@ -2310,7 +2298,7 @@
         <v>7.25</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2318,10 +2306,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D49">
         <v>7.22</v>
@@ -2334,7 +2322,7 @@
         <v>7.22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2342,10 +2330,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D50">
         <v>7.24</v>
@@ -2358,7 +2346,7 @@
         <v>7.24</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2366,10 +2354,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D51">
         <v>8.7200000000000006</v>
@@ -2382,7 +2370,7 @@
         <v>8.7200000000000006</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2390,10 +2378,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D52">
         <v>7.08</v>
@@ -2406,7 +2394,7 @@
         <v>7.08</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2414,10 +2402,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D53">
         <v>8.08</v>
@@ -2430,7 +2418,7 @@
         <v>8.08</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2438,10 +2426,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D54">
         <v>6.26</v>
@@ -2454,7 +2442,7 @@
         <v>6.26</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2462,10 +2450,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D55">
         <v>5.5</v>
@@ -2478,7 +2466,7 @@
         <v>5.5</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2486,10 +2474,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D56">
         <v>7.28</v>
@@ -2502,7 +2490,7 @@
         <v>7.28</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2510,10 +2498,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D57">
         <v>7.32</v>
@@ -2526,7 +2514,7 @@
         <v>7.32</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2534,10 +2522,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D58">
         <v>8.2799999999999994</v>
@@ -2550,7 +2538,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2558,10 +2546,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D59">
         <v>7.44</v>
@@ -2574,7 +2562,7 @@
         <v>7.44</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2582,10 +2570,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D60">
         <v>6.76</v>
@@ -2598,7 +2586,7 @@
         <v>6.76</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2606,10 +2594,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D61">
         <v>6.68</v>
@@ -2622,7 +2610,7 @@
         <v>6.68</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2630,10 +2618,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D62">
         <v>7.96</v>
@@ -2646,7 +2634,7 @@
         <v>7.96</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2654,10 +2642,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D63">
         <v>8.68</v>
@@ -2670,7 +2658,7 @@
         <v>8.68</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2678,10 +2666,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D64">
         <v>8.68</v>
@@ -2694,7 +2682,7 @@
         <v>8.68</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2702,10 +2690,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D65">
         <v>5.24</v>
@@ -2718,7 +2706,7 @@
         <v>5.24</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2726,10 +2714,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D66">
         <v>8.8000000000000007</v>
@@ -2742,7 +2730,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2750,10 +2738,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D67">
         <v>6.48</v>
@@ -2766,7 +2754,7 @@
         <v>6.48</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2774,10 +2762,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D68">
         <v>6.6</v>
@@ -2790,7 +2778,7 @@
         <v>6.6</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2798,10 +2786,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D69">
         <v>7.12</v>
@@ -2814,7 +2802,7 @@
         <v>7.12</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2822,10 +2810,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D70">
         <v>7.24</v>
@@ -2838,7 +2826,7 @@
         <v>7.24</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2846,10 +2834,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D71">
         <v>6.61</v>
@@ -2862,7 +2850,7 @@
         <v>6.61</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2870,10 +2858,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D72">
         <v>8.24</v>
@@ -2886,7 +2874,7 @@
         <v>8.24</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2894,10 +2882,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D73">
         <v>4.8099999999999996</v>
@@ -2910,7 +2898,7 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2918,10 +2906,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D74">
         <v>8.56</v>
@@ -2934,7 +2922,7 @@
         <v>8.56</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2942,10 +2930,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D75">
         <v>9.0399999999999991</v>
@@ -2958,7 +2946,7 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2966,10 +2954,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D76">
         <v>8.56</v>
@@ -2982,7 +2970,7 @@
         <v>8.56</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2990,10 +2978,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D77">
         <v>8.52</v>
@@ -3006,7 +2994,7 @@
         <v>8.52</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3014,10 +3002,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D78">
         <v>7.48</v>
@@ -3030,7 +3018,7 @@
         <v>7.48</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3038,10 +3026,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D79">
         <v>5.0999999999999996</v>
@@ -3054,7 +3042,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3062,10 +3050,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D80">
         <v>7.96</v>
@@ -3078,7 +3066,7 @@
         <v>7.96</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3086,10 +3074,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D81">
         <v>8.6</v>
@@ -3102,7 +3090,7 @@
         <v>8.6</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3110,10 +3098,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D82">
         <v>8.6</v>
@@ -3126,7 +3114,7 @@
         <v>8.6</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3134,10 +3122,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D83">
         <v>5.28</v>
@@ -3150,7 +3138,7 @@
         <v>5.28</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3158,10 +3146,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D84">
         <v>7.48</v>
@@ -3174,7 +3162,7 @@
         <v>7.48</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3182,10 +3170,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D85">
         <v>3.2</v>
@@ -3198,7 +3186,7 @@
         <v>3.2</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3206,10 +3194,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D86">
         <v>7.28</v>
@@ -3222,7 +3210,7 @@
         <v>7.28</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3230,10 +3218,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D87">
         <v>7.72</v>
@@ -3246,7 +3234,7 @@
         <v>7.72</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3254,10 +3242,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88">
         <v>5.1100000000000003</v>
@@ -3270,7 +3258,7 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3278,10 +3266,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C89" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D89">
         <v>7.88</v>
@@ -3294,7 +3282,7 @@
         <v>7.88</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3302,10 +3290,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C90" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D90">
         <v>7.28</v>
@@ -3318,7 +3306,7 @@
         <v>7.28</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3326,10 +3314,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C91" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D91">
         <v>8.1999999999999993</v>
@@ -3342,7 +3330,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3350,10 +3338,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C92" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D92">
         <v>7.72</v>
@@ -3366,7 +3354,7 @@
         <v>7.72</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3374,10 +3362,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C93" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D93">
         <v>8.16</v>
@@ -3390,7 +3378,7 @@
         <v>8.16</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3398,10 +3386,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D94">
         <v>7.56</v>
@@ -3414,7 +3402,7 @@
         <v>7.56</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3422,10 +3410,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C95" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D95">
         <v>7.72</v>
@@ -3438,7 +3426,7 @@
         <v>7.72</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3446,10 +3434,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D96">
         <v>7.6</v>
@@ -3462,7 +3450,7 @@
         <v>7.6</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3470,10 +3458,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C97" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D97">
         <v>6.96</v>
@@ -3486,7 +3474,7 @@
         <v>6.96</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3494,10 +3482,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C98" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D98">
         <v>8</v>
@@ -3510,7 +3498,7 @@
         <v>8</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3518,10 +3506,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D99">
         <v>6.73</v>
@@ -3534,7 +3522,7 @@
         <v>6.73</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3542,10 +3530,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D100">
         <v>7.16</v>
@@ -3558,7 +3546,7 @@
         <v>7.16</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3566,10 +3554,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C101" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D101">
         <v>8.16</v>
@@ -3582,7 +3570,7 @@
         <v>8.16</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3590,10 +3578,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C102" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D102">
         <v>8.1999999999999993</v>
@@ -3606,7 +3594,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3614,10 +3602,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D103">
         <v>8.16</v>
@@ -3630,7 +3618,7 @@
         <v>8.16</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3638,10 +3626,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C104" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D104">
         <v>8.16</v>
@@ -3654,7 +3642,7 @@
         <v>8.16</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3662,10 +3650,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C105" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D105">
         <v>8.08</v>
@@ -3678,7 +3666,7 @@
         <v>8.08</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3686,10 +3674,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C106" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D106">
         <v>5.96</v>
@@ -3702,7 +3690,7 @@
         <v>5.96</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3710,10 +3698,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C107" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D107">
         <v>6.56</v>
@@ -3726,7 +3714,7 @@
         <v>6.56</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3734,10 +3722,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C108" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D108">
         <v>5.35</v>
@@ -3750,7 +3738,7 @@
         <v>5.35</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3758,10 +3746,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C109" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D109">
         <v>5.52</v>
@@ -3774,7 +3762,7 @@
         <v>5.52</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3782,10 +3770,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D110">
         <v>6.28</v>
@@ -3798,7 +3786,7 @@
         <v>6.28</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3806,10 +3794,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D111">
         <v>6.68</v>
@@ -3822,7 +3810,7 @@
         <v>6.68</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3830,10 +3818,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C112" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D112">
         <v>6.2</v>
@@ -3846,7 +3834,7 @@
         <v>6.2</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3855,52 +3843,31 @@
       <c r="C113" s="1"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="3">
-        <f>SUM(F2:F112)/111</f>
-        <v>7.2213513513513519</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B115" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B115" s="8"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="4">
-        <v>7.2</v>
-      </c>
+      <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B116" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B116" s="8"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="4">
-        <v>111</v>
-      </c>
+      <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B117" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="B117" s="8"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="4">
-        <v>111</v>
-      </c>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B118" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B118" s="8"/>
       <c r="C118" s="8"/>
-      <c r="D118" s="4">
-        <v>7.2</v>
-      </c>
+      <c r="D118" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
